--- a/Model Stats.xlsx
+++ b/Model Stats.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Uppsala Docs\period5&amp;6\stats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitRep\DAMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550767B7-ABA9-43B3-8C50-4189AEDDB282}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B65A3C-155D-4236-9816-E4A5D73A2780}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="4575" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="52">
   <si>
     <t>LSTM Layers</t>
   </si>
@@ -115,19 +115,73 @@
     <t>Model Seven</t>
   </si>
   <si>
-    <t>(14795, 1, 10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (23271, 1, 10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                         </t>
-  </si>
-  <si>
     <t>'DateTimestamp','Classification','Weektype','Hour','NO2', 'NOX as NO2','PM2.5', 'PM10'</t>
   </si>
   <si>
     <t>S.No</t>
+  </si>
+  <si>
+    <t>Outliers Removal</t>
+  </si>
+  <si>
+    <t>Train</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Isolation Forest</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>2015;2016;2017</t>
+  </si>
+  <si>
+    <t>2018;2019</t>
+  </si>
+  <si>
+    <t>Nan</t>
+  </si>
+  <si>
+    <t>Neagtive</t>
+  </si>
+  <si>
+    <t>Masked with -0.00001</t>
+  </si>
+  <si>
+    <t>Exist after outlier removal</t>
+  </si>
+  <si>
+    <t>Exists</t>
+  </si>
+  <si>
+    <t>(26303, 1, 11)</t>
+  </si>
+  <si>
+    <t>(17518, 1, 11)</t>
+  </si>
+  <si>
+    <t>'DateTimestamp','Classification','Weektype','Hour','NO2','PM2.5','PM10'</t>
+  </si>
+  <si>
+    <t>(26303, 1, 12)</t>
+  </si>
+  <si>
+    <t>(17518, 1, 12)</t>
+  </si>
+  <si>
+    <t>'DateTimestamp','Classification','Weektype','Hour','NOX as NO2','PM2.5','PM10'</t>
+  </si>
+  <si>
+    <t>(26303, 1, 10)</t>
+  </si>
+  <si>
+    <t>(17518, 1, 10)</t>
+  </si>
+  <si>
+    <t>'DateTimestamp','Classification','Weektype','Hour','NOX as NO2','PM10'</t>
   </si>
 </sst>
 </file>
@@ -145,8 +199,9 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Courier New"/>
-      <family val="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -169,12 +224,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1055,16 +1121,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2391494</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1094,8 +1160,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6934200" y="190500"/>
-          <a:ext cx="3790950" cy="2647950"/>
+          <a:off x="11858626" y="457200"/>
+          <a:ext cx="3314700" cy="2315294"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1116,16 +1182,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>87197</xdr:rowOff>
+      <xdr:rowOff>37150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>581024</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>114298</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2473814</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1155,8 +1221,496 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10982325" y="277697"/>
-          <a:ext cx="4457699" cy="2313101"/>
+          <a:off x="15573375" y="418150"/>
+          <a:ext cx="4695825" cy="2436664"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2195123</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63E224E3-DE32-43B6-9C09-8BB438DA6384}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11896726" y="2943225"/>
+          <a:ext cx="3114674" cy="2137973"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>29097</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>299973</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2057400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5E8E2AF-E499-47FB-B695-B00502E202DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15544800" y="2915172"/>
+          <a:ext cx="3928998" cy="2028303"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>111149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>285032</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2333625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD92538A-BF59-4F53-8E21-F5C141818B6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11953875" y="5273699"/>
+          <a:ext cx="3237782" cy="2222476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>87085</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>303186</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>258533</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2290079</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF091A08-8010-4AD9-8254-367A22BB09A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15980228" y="5460293"/>
+          <a:ext cx="3845376" cy="1986893"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>183749</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>22271</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2219325</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D5ACF64-A884-4506-8ABF-656A2CBE1B84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11963399" y="7718024"/>
+          <a:ext cx="2965497" cy="2035576"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>602796</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>136783</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>545645</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2321378</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEC83713-C5AF-448A-9B39-8C93D60BA201}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15883617" y="7661533"/>
+          <a:ext cx="4229099" cy="2184595"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>217715</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12788</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>112600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2006034</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F13A5301-477C-4A6C-ACA2-54B359FC8F07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12436929" y="9905181"/>
+          <a:ext cx="2956492" cy="1993246"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>136070</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>87706</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>470806</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>80281</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA7BB535-2018-449E-856C-83792E1EC660}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16029213" y="9980099"/>
+          <a:ext cx="4008664" cy="2060861"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1758,84 +2312,298 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{623661EA-9318-490E-BE75-A31F77D1A42D}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" style="3" customWidth="1"/>
+    <col min="9" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="197.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="1">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="2">
+        <v>5.6488021038225202</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="179.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="1">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="2">
+        <v>19.033558359805799</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="186.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="1">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1.87833987153966</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4"/>
+      <c r="T4"/>
+    </row>
+    <row r="5" spans="1:20" ht="186" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="1">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1.8374296917770201</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5"/>
+    </row>
+    <row r="6" spans="1:20" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="1">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
+      <c r="J6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="1">
+        <v>5.0068979358370296</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6"/>
+      <c r="T6"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="1">
-        <v>5.6488021038225202</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Model Stats.xlsx
+++ b/Model Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitRep\DAMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B65A3C-155D-4236-9816-E4A5D73A2780}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6714B9BC-6533-479D-A769-0F24B6967A27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="4575" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="57">
   <si>
     <t>LSTM Layers</t>
   </si>
@@ -182,6 +182,21 @@
   </si>
   <si>
     <t>'DateTimestamp','Classification','Weektype','Hour','NOX as NO2','PM10'</t>
+  </si>
+  <si>
+    <t>Station Selected</t>
+  </si>
+  <si>
+    <t>#Stockholm Torkel Knutssongatan</t>
+  </si>
+  <si>
+    <t>(26303, 1, 31)</t>
+  </si>
+  <si>
+    <t>(17518, 1, 31)</t>
+  </si>
+  <si>
+    <t>DateTimestamp','Classification','Weektype','Hour','NOX as NO2','PM10', 'Air pressure','Air temperature', 'Amount of clouds', 'Precipitation amount', 'Wind direction', 'Wind speed'</t>
   </si>
 </sst>
 </file>
@@ -1121,13 +1136,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>266701</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>2391494</xdr:rowOff>
@@ -1182,13 +1197,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>37150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>2473814</xdr:rowOff>
@@ -1243,13 +1258,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>38101</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>2195123</xdr:rowOff>
@@ -1304,14 +1319,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>29097</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>299973</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>299972</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>2057400</xdr:rowOff>
     </xdr:to>
@@ -1365,13 +1380,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>111149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>285032</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>2333625</xdr:rowOff>
@@ -1426,14 +1441,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>87085</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>303186</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>258533</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>258532</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>2290079</xdr:rowOff>
     </xdr:to>
@@ -1487,13 +1502,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>104774</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>183749</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>22271</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>2219325</xdr:rowOff>
@@ -1548,13 +1563,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>602796</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>136783</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>545645</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>2321378</xdr:rowOff>
@@ -1609,13 +1624,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>217715</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>12788</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>112600</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>2006034</xdr:rowOff>
@@ -1670,14 +1685,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>136070</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>87706</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>470806</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>470805</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>80281</xdr:rowOff>
     </xdr:to>
@@ -1711,6 +1726,128 @@
         <a:xfrm>
           <a:off x="16029213" y="9980099"/>
           <a:ext cx="4008664" cy="2060861"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>90714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>235446</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2211160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93B2251B-673B-4226-ADED-32B5C7256167}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13482411" y="11860893"/>
+          <a:ext cx="3138303" cy="2120446"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>113392</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>113317</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>13151</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>72117</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6208A8D2-5726-4EAF-9C88-C564249B8E63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17110981" y="11883496"/>
+          <a:ext cx="4186009" cy="2181300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2312,10 +2449,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{623661EA-9318-490E-BE75-A31F77D1A42D}">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2325,15 +2462,15 @@
     <col min="5" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" style="3" customWidth="1"/>
-    <col min="9" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="9" width="16.42578125" style="3" customWidth="1"/>
+    <col min="10" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -2358,26 +2495,29 @@
       <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="197.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="197.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2402,26 +2542,29 @@
       <c r="H2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="1">
         <v>10</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>5.6488021038225202</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="179.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="179.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2446,26 +2589,29 @@
       <c r="H3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="1">
         <v>10</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>19.033558359805799</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="186.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="186.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2490,28 +2636,31 @@
       <c r="H4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="1">
         <v>10</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>1.87833987153966</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P4"/>
-      <c r="T4"/>
+      <c r="Q4"/>
+      <c r="U4"/>
     </row>
-    <row r="5" spans="1:20" ht="186" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="186" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2536,27 +2685,30 @@
       <c r="H5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="1">
         <v>10</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>1.8374296917770201</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O5"/>
+      <c r="P5"/>
     </row>
-    <row r="6" spans="1:20" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2581,29 +2733,80 @@
       <c r="H6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="1">
         <v>10</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>5.0068979358370296</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O6"/>
-      <c r="T6"/>
+      <c r="P6"/>
+      <c r="U6"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="O7"/>
+    <row r="7" spans="1:21" ht="174.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="1">
+        <v>10</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="1">
+        <v>5.0617812397808297</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Model Stats.xlsx
+++ b/Model Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitRep\DAMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6714B9BC-6533-479D-A769-0F24B6967A27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFEF0CC-D04B-42ED-946A-D217D32D2573}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="705" yWindow="690" windowWidth="2400" windowHeight="585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1197,16 +1197,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>374650</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>37150</xdr:rowOff>
+      <xdr:rowOff>105186</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>382812</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>2473814</xdr:rowOff>
+      <xdr:rowOff>2324553</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1236,8 +1236,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="15573375" y="418150"/>
-          <a:ext cx="4695825" cy="2436664"/>
+          <a:off x="16759918" y="297954"/>
+          <a:ext cx="4294412" cy="2219367"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2451,8 +2451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{623661EA-9318-490E-BE75-A31F77D1A42D}">
   <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="AC3" sqref="AC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
